--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Jag2-Notch1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Jag2-Notch1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.0326431864256</v>
+        <v>15.41482866666667</v>
       </c>
       <c r="H2">
-        <v>14.0326431864256</v>
+        <v>46.244486</v>
       </c>
       <c r="I2">
-        <v>0.6317436461445349</v>
+        <v>0.6468072013652575</v>
       </c>
       <c r="J2">
-        <v>0.6317436461445349</v>
+        <v>0.6468072013652575</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>36.7867647594208</v>
+        <v>45.13108133333333</v>
       </c>
       <c r="N2">
-        <v>36.7867647594208</v>
+        <v>135.393244</v>
       </c>
       <c r="O2">
-        <v>0.2952017182697281</v>
+        <v>0.3170330137447531</v>
       </c>
       <c r="P2">
-        <v>0.2952017182697281</v>
+        <v>0.317033013744753</v>
       </c>
       <c r="Q2">
-        <v>516.2155438519277</v>
+        <v>695.6878862947316</v>
       </c>
       <c r="R2">
-        <v>516.2155438519277</v>
+        <v>6261.190976652585</v>
       </c>
       <c r="S2">
-        <v>0.1864918098478498</v>
+        <v>0.2050592363606369</v>
       </c>
       <c r="T2">
-        <v>0.1864918098478498</v>
+        <v>0.2050592363606369</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.0326431864256</v>
+        <v>15.41482866666667</v>
       </c>
       <c r="H3">
-        <v>14.0326431864256</v>
+        <v>46.244486</v>
       </c>
       <c r="I3">
-        <v>0.6317436461445349</v>
+        <v>0.6468072013652575</v>
       </c>
       <c r="J3">
-        <v>0.6317436461445349</v>
+        <v>0.6468072013652575</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.71373915320556</v>
+        <v>5.717455666666666</v>
       </c>
       <c r="N3">
-        <v>5.71373915320556</v>
+        <v>17.152367</v>
       </c>
       <c r="O3">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="P3">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="Q3">
-        <v>80.17886279724318</v>
+        <v>88.1335995109291</v>
       </c>
       <c r="R3">
-        <v>80.17886279724318</v>
+        <v>793.2023955983619</v>
       </c>
       <c r="S3">
-        <v>0.02896600347022749</v>
+        <v>0.0259780412588193</v>
       </c>
       <c r="T3">
-        <v>0.02896600347022749</v>
+        <v>0.0259780412588193</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.0326431864256</v>
+        <v>15.41482866666667</v>
       </c>
       <c r="H4">
-        <v>14.0326431864256</v>
+        <v>46.244486</v>
       </c>
       <c r="I4">
-        <v>0.6317436461445349</v>
+        <v>0.6468072013652575</v>
       </c>
       <c r="J4">
-        <v>0.6317436461445349</v>
+        <v>0.6468072013652575</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.9566919690693</v>
+        <v>14.17143466666666</v>
       </c>
       <c r="N4">
-        <v>11.9566919690693</v>
+        <v>42.514304</v>
       </c>
       <c r="O4">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="P4">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="Q4">
-        <v>167.78399209195</v>
+        <v>218.4502373475271</v>
       </c>
       <c r="R4">
-        <v>167.78399209195</v>
+        <v>1966.052136127744</v>
       </c>
       <c r="S4">
-        <v>0.06061487438995145</v>
+        <v>0.0643898502989113</v>
       </c>
       <c r="T4">
-        <v>0.06061487438995145</v>
+        <v>0.0643898502989113</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.0326431864256</v>
+        <v>15.41482866666667</v>
       </c>
       <c r="H5">
-        <v>14.0326431864256</v>
+        <v>46.244486</v>
       </c>
       <c r="I5">
-        <v>0.6317436461445349</v>
+        <v>0.6468072013652575</v>
       </c>
       <c r="J5">
-        <v>0.6317436461445349</v>
+        <v>0.6468072013652575</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.6185303425051</v>
+        <v>15.94503</v>
       </c>
       <c r="N5">
-        <v>15.6185303425051</v>
+        <v>47.83509</v>
       </c>
       <c r="O5">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="P5">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="Q5">
-        <v>219.1692633927357</v>
+        <v>245.78990553486</v>
       </c>
       <c r="R5">
-        <v>219.1692633927357</v>
+        <v>2212.10914981374</v>
       </c>
       <c r="S5">
-        <v>0.079178694016342</v>
+        <v>0.07244842310331481</v>
       </c>
       <c r="T5">
-        <v>0.079178694016342</v>
+        <v>0.0724484231033148</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.0326431864256</v>
+        <v>15.41482866666667</v>
       </c>
       <c r="H6">
-        <v>14.0326431864256</v>
+        <v>46.244486</v>
       </c>
       <c r="I6">
-        <v>0.6317436461445349</v>
+        <v>0.6468072013652575</v>
       </c>
       <c r="J6">
-        <v>0.6317436461445349</v>
+        <v>0.6468072013652575</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>26.5908508520181</v>
+        <v>28.53112133333333</v>
       </c>
       <c r="N6">
-        <v>26.5908508520181</v>
+        <v>85.59336400000001</v>
       </c>
       <c r="O6">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="P6">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="Q6">
-        <v>373.1399220298312</v>
+        <v>439.8023470212116</v>
       </c>
       <c r="R6">
-        <v>373.1399220298312</v>
+        <v>3958.221123190905</v>
       </c>
       <c r="S6">
-        <v>0.1348032623476937</v>
+        <v>0.1296350492892986</v>
       </c>
       <c r="T6">
-        <v>0.1348032623476937</v>
+        <v>0.1296350492892986</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.0326431864256</v>
+        <v>15.41482866666667</v>
       </c>
       <c r="H7">
-        <v>14.0326431864256</v>
+        <v>46.244486</v>
       </c>
       <c r="I7">
-        <v>0.6317436461445349</v>
+        <v>0.6468072013652575</v>
       </c>
       <c r="J7">
-        <v>0.6317436461445349</v>
+        <v>0.6468072013652575</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.9491093602959</v>
+        <v>32.85839333333333</v>
       </c>
       <c r="N7">
-        <v>27.9491093602959</v>
+        <v>98.57517999999999</v>
       </c>
       <c r="O7">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="P7">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="Q7">
-        <v>392.1998790314202</v>
+        <v>506.5065034952755</v>
       </c>
       <c r="R7">
-        <v>392.1998790314202</v>
+        <v>4558.55853145748</v>
       </c>
       <c r="S7">
-        <v>0.1416890020724706</v>
+        <v>0.1492966010542766</v>
       </c>
       <c r="T7">
-        <v>0.1416890020724706</v>
+        <v>0.1492966010542766</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.08721610360565241</v>
+        <v>0.1384146666666667</v>
       </c>
       <c r="H8">
-        <v>0.08721610360565241</v>
+        <v>0.415244</v>
       </c>
       <c r="I8">
-        <v>0.003926432003035132</v>
+        <v>0.005807888307456049</v>
       </c>
       <c r="J8">
-        <v>0.003926432003035132</v>
+        <v>0.00580788830745605</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>36.7867647594208</v>
+        <v>45.13108133333333</v>
       </c>
       <c r="N8">
-        <v>36.7867647594208</v>
+        <v>135.393244</v>
       </c>
       <c r="O8">
-        <v>0.2952017182697281</v>
+        <v>0.3170330137447531</v>
       </c>
       <c r="P8">
-        <v>0.2952017182697281</v>
+        <v>0.317033013744753</v>
       </c>
       <c r="Q8">
-        <v>3.208398286574407</v>
+        <v>6.246803579059555</v>
       </c>
       <c r="R8">
-        <v>3.208398286574407</v>
+        <v>56.22123221153601</v>
       </c>
       <c r="S8">
-        <v>0.001159089473965221</v>
+        <v>0.001841292333605704</v>
       </c>
       <c r="T8">
-        <v>0.001159089473965221</v>
+        <v>0.001841292333605704</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.08721610360565241</v>
+        <v>0.1384146666666667</v>
       </c>
       <c r="H9">
-        <v>0.08721610360565241</v>
+        <v>0.415244</v>
       </c>
       <c r="I9">
-        <v>0.003926432003035132</v>
+        <v>0.005807888307456049</v>
       </c>
       <c r="J9">
-        <v>0.003926432003035132</v>
+        <v>0.00580788830745605</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.71373915320556</v>
+        <v>5.717455666666666</v>
       </c>
       <c r="N9">
-        <v>5.71373915320556</v>
+        <v>17.152367</v>
       </c>
       <c r="O9">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="P9">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="Q9">
-        <v>0.4983300659616487</v>
+        <v>0.791379720283111</v>
       </c>
       <c r="R9">
-        <v>0.4983300659616487</v>
+        <v>7.122417482547999</v>
       </c>
       <c r="S9">
-        <v>0.0001800303710526077</v>
+        <v>0.0002332651240728929</v>
       </c>
       <c r="T9">
-        <v>0.0001800303710526077</v>
+        <v>0.000233265124072893</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.08721610360565241</v>
+        <v>0.1384146666666667</v>
       </c>
       <c r="H10">
-        <v>0.08721610360565241</v>
+        <v>0.415244</v>
       </c>
       <c r="I10">
-        <v>0.003926432003035132</v>
+        <v>0.005807888307456049</v>
       </c>
       <c r="J10">
-        <v>0.003926432003035132</v>
+        <v>0.00580788830745605</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.9566919690693</v>
+        <v>14.17143466666666</v>
       </c>
       <c r="N10">
-        <v>11.9566919690693</v>
+        <v>42.514304</v>
       </c>
       <c r="O10">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="P10">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="Q10">
-        <v>1.04281608555522</v>
+        <v>1.961534405575111</v>
       </c>
       <c r="R10">
-        <v>1.04281608555522</v>
+        <v>17.653809650176</v>
       </c>
       <c r="S10">
-        <v>0.0003767353801136744</v>
+        <v>0.0005781770176345158</v>
       </c>
       <c r="T10">
-        <v>0.0003767353801136744</v>
+        <v>0.0005781770176345159</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.08721610360565241</v>
+        <v>0.1384146666666667</v>
       </c>
       <c r="H11">
-        <v>0.08721610360565241</v>
+        <v>0.415244</v>
       </c>
       <c r="I11">
-        <v>0.003926432003035132</v>
+        <v>0.005807888307456049</v>
       </c>
       <c r="J11">
-        <v>0.003926432003035132</v>
+        <v>0.00580788830745605</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.6185303425051</v>
+        <v>15.94503</v>
       </c>
       <c r="N11">
-        <v>15.6185303425051</v>
+        <v>47.83509</v>
       </c>
       <c r="O11">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="P11">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="Q11">
-        <v>1.362187360519951</v>
+        <v>2.20702601244</v>
       </c>
       <c r="R11">
-        <v>1.362187360519951</v>
+        <v>19.86323411196</v>
       </c>
       <c r="S11">
-        <v>0.0004921137870426067</v>
+        <v>0.0006505375149615212</v>
       </c>
       <c r="T11">
-        <v>0.0004921137870426067</v>
+        <v>0.0006505375149615211</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.08721610360565241</v>
+        <v>0.1384146666666667</v>
       </c>
       <c r="H12">
-        <v>0.08721610360565241</v>
+        <v>0.415244</v>
       </c>
       <c r="I12">
-        <v>0.003926432003035132</v>
+        <v>0.005807888307456049</v>
       </c>
       <c r="J12">
-        <v>0.003926432003035132</v>
+        <v>0.00580788830745605</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>26.5908508520181</v>
+        <v>28.53112133333333</v>
       </c>
       <c r="N12">
-        <v>26.5908508520181</v>
+        <v>85.59336400000001</v>
       </c>
       <c r="O12">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="P12">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="Q12">
-        <v>2.319150402872061</v>
+        <v>3.949125648979555</v>
       </c>
       <c r="R12">
-        <v>2.319150402872061</v>
+        <v>35.542130840816</v>
       </c>
       <c r="S12">
-        <v>0.0008378332676961012</v>
+        <v>0.001164034484177973</v>
       </c>
       <c r="T12">
-        <v>0.0008378332676961012</v>
+        <v>0.001164034484177973</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.08721610360565241</v>
+        <v>0.1384146666666667</v>
       </c>
       <c r="H13">
-        <v>0.08721610360565241</v>
+        <v>0.415244</v>
       </c>
       <c r="I13">
-        <v>0.003926432003035132</v>
+        <v>0.005807888307456049</v>
       </c>
       <c r="J13">
-        <v>0.003926432003035132</v>
+        <v>0.00580788830745605</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>27.9491093602959</v>
+        <v>32.85839333333333</v>
       </c>
       <c r="N13">
-        <v>27.9491093602959</v>
+        <v>98.57517999999999</v>
       </c>
       <c r="O13">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="P13">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="Q13">
-        <v>2.437612417653277</v>
+        <v>4.548083560435555</v>
       </c>
       <c r="R13">
-        <v>2.437612417653277</v>
+        <v>40.93275204392</v>
       </c>
       <c r="S13">
-        <v>0.0008806297231649209</v>
+        <v>0.001340581833003442</v>
       </c>
       <c r="T13">
-        <v>0.0008806297231649209</v>
+        <v>0.001340581833003442</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.60493245432888</v>
+        <v>1.618736666666667</v>
       </c>
       <c r="H14">
-        <v>1.60493245432888</v>
+        <v>4.85621</v>
       </c>
       <c r="I14">
-        <v>0.07225337857191581</v>
+        <v>0.06792229454862958</v>
       </c>
       <c r="J14">
-        <v>0.07225337857191581</v>
+        <v>0.06792229454862958</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>36.7867647594208</v>
+        <v>45.13108133333333</v>
       </c>
       <c r="N14">
-        <v>36.7867647594208</v>
+        <v>135.393244</v>
       </c>
       <c r="O14">
-        <v>0.2952017182697281</v>
+        <v>0.3170330137447531</v>
       </c>
       <c r="P14">
-        <v>0.2952017182697281</v>
+        <v>0.317033013744753</v>
       </c>
       <c r="Q14">
-        <v>59.04027265215637</v>
+        <v>73.05533616058223</v>
       </c>
       <c r="R14">
-        <v>59.04027265215637</v>
+        <v>657.49802544524</v>
       </c>
       <c r="S14">
-        <v>0.0213293215052227</v>
+        <v>0.02153360974121085</v>
       </c>
       <c r="T14">
-        <v>0.0213293215052227</v>
+        <v>0.02153360974121084</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.60493245432888</v>
+        <v>1.618736666666667</v>
       </c>
       <c r="H15">
-        <v>1.60493245432888</v>
+        <v>4.85621</v>
       </c>
       <c r="I15">
-        <v>0.07225337857191581</v>
+        <v>0.06792229454862958</v>
       </c>
       <c r="J15">
-        <v>0.07225337857191581</v>
+        <v>0.06792229454862958</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.71373915320556</v>
+        <v>5.717455666666666</v>
       </c>
       <c r="N15">
-        <v>5.71373915320556</v>
+        <v>17.152367</v>
       </c>
       <c r="O15">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="P15">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="Q15">
-        <v>9.170165402549216</v>
+        <v>9.255055127674444</v>
       </c>
       <c r="R15">
-        <v>9.170165402549216</v>
+        <v>83.29549614906999</v>
       </c>
       <c r="S15">
-        <v>0.003312881146051048</v>
+        <v>0.002727997100919034</v>
       </c>
       <c r="T15">
-        <v>0.003312881146051048</v>
+        <v>0.002727997100919034</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.60493245432888</v>
+        <v>1.618736666666667</v>
       </c>
       <c r="H16">
-        <v>1.60493245432888</v>
+        <v>4.85621</v>
       </c>
       <c r="I16">
-        <v>0.07225337857191581</v>
+        <v>0.06792229454862958</v>
       </c>
       <c r="J16">
-        <v>0.07225337857191581</v>
+        <v>0.06792229454862958</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>11.9566919690693</v>
+        <v>14.17143466666666</v>
       </c>
       <c r="N16">
-        <v>11.9566919690693</v>
+        <v>42.514304</v>
       </c>
       <c r="O16">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="P16">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="Q16">
-        <v>19.1896829875728</v>
+        <v>22.93982091420444</v>
       </c>
       <c r="R16">
-        <v>19.1896829875728</v>
+        <v>206.45838822784</v>
       </c>
       <c r="S16">
-        <v>0.006932605485017072</v>
+        <v>0.006761684731885138</v>
       </c>
       <c r="T16">
-        <v>0.006932605485017072</v>
+        <v>0.006761684731885138</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.60493245432888</v>
+        <v>1.618736666666667</v>
       </c>
       <c r="H17">
-        <v>1.60493245432888</v>
+        <v>4.85621</v>
       </c>
       <c r="I17">
-        <v>0.07225337857191581</v>
+        <v>0.06792229454862958</v>
       </c>
       <c r="J17">
-        <v>0.07225337857191581</v>
+        <v>0.06792229454862958</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>15.6185303425051</v>
+        <v>15.94503</v>
       </c>
       <c r="N17">
-        <v>15.6185303425051</v>
+        <v>47.83509</v>
       </c>
       <c r="O17">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="P17">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="Q17">
-        <v>25.0666862356068</v>
+        <v>25.8108047121</v>
       </c>
       <c r="R17">
-        <v>25.0666862356068</v>
+        <v>232.2972424089</v>
       </c>
       <c r="S17">
-        <v>0.009055774741078708</v>
+        <v>0.007607928797360802</v>
       </c>
       <c r="T17">
-        <v>0.009055774741078708</v>
+        <v>0.0076079287973608</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.60493245432888</v>
+        <v>1.618736666666667</v>
       </c>
       <c r="H18">
-        <v>1.60493245432888</v>
+        <v>4.85621</v>
       </c>
       <c r="I18">
-        <v>0.07225337857191581</v>
+        <v>0.06792229454862958</v>
       </c>
       <c r="J18">
-        <v>0.07225337857191581</v>
+        <v>0.06792229454862958</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>26.5908508520181</v>
+        <v>28.53112133333333</v>
       </c>
       <c r="N18">
-        <v>26.5908508520181</v>
+        <v>85.59336400000001</v>
       </c>
       <c r="O18">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="P18">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="Q18">
-        <v>42.67651952062261</v>
+        <v>46.18437224338223</v>
       </c>
       <c r="R18">
-        <v>42.67651952062261</v>
+        <v>415.65935019044</v>
       </c>
       <c r="S18">
-        <v>0.01541763214648748</v>
+        <v>0.01361319104528883</v>
       </c>
       <c r="T18">
-        <v>0.01541763214648748</v>
+        <v>0.01361319104528883</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.60493245432888</v>
+        <v>1.618736666666667</v>
       </c>
       <c r="H19">
-        <v>1.60493245432888</v>
+        <v>4.85621</v>
       </c>
       <c r="I19">
-        <v>0.07225337857191581</v>
+        <v>0.06792229454862958</v>
       </c>
       <c r="J19">
-        <v>0.07225337857191581</v>
+        <v>0.06792229454862958</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>27.9491093602959</v>
+        <v>32.85839333333333</v>
       </c>
       <c r="N19">
-        <v>27.9491093602959</v>
+        <v>98.57517999999999</v>
       </c>
       <c r="O19">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="P19">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="Q19">
-        <v>44.85643268192597</v>
+        <v>53.18908609642222</v>
       </c>
       <c r="R19">
-        <v>44.85643268192597</v>
+        <v>478.7017748677999</v>
       </c>
       <c r="S19">
-        <v>0.01620516354805881</v>
+        <v>0.01567788313196493</v>
       </c>
       <c r="T19">
-        <v>0.01620516354805881</v>
+        <v>0.01567788313196493</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.22729662862825</v>
+        <v>4.366583666666667</v>
       </c>
       <c r="H20">
-        <v>4.22729662862825</v>
+        <v>13.099751</v>
       </c>
       <c r="I20">
-        <v>0.1903111017664491</v>
+        <v>0.1832221312372622</v>
       </c>
       <c r="J20">
-        <v>0.1903111017664491</v>
+        <v>0.1832221312372622</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>36.7867647594208</v>
+        <v>45.13108133333333</v>
       </c>
       <c r="N20">
-        <v>36.7867647594208</v>
+        <v>135.393244</v>
       </c>
       <c r="O20">
-        <v>0.2952017182697281</v>
+        <v>0.3170330137447531</v>
       </c>
       <c r="P20">
-        <v>0.2952017182697281</v>
+        <v>0.317033013744753</v>
       </c>
       <c r="Q20">
-        <v>155.5085666456401</v>
+        <v>197.0686426091382</v>
       </c>
       <c r="R20">
-        <v>155.5085666456401</v>
+        <v>1773.617783482244</v>
       </c>
       <c r="S20">
-        <v>0.05618016424726084</v>
+        <v>0.0580874644508859</v>
       </c>
       <c r="T20">
-        <v>0.05618016424726084</v>
+        <v>0.05808746445088588</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.22729662862825</v>
+        <v>4.366583666666667</v>
       </c>
       <c r="H21">
-        <v>4.22729662862825</v>
+        <v>13.099751</v>
       </c>
       <c r="I21">
-        <v>0.1903111017664491</v>
+        <v>0.1832221312372622</v>
       </c>
       <c r="J21">
-        <v>0.1903111017664491</v>
+        <v>0.1832221312372622</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>5.71373915320556</v>
+        <v>5.717455666666666</v>
       </c>
       <c r="N21">
-        <v>5.71373915320556</v>
+        <v>17.152367</v>
       </c>
       <c r="O21">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="P21">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="Q21">
-        <v>24.15367025920709</v>
+        <v>24.96574852895744</v>
       </c>
       <c r="R21">
-        <v>24.15367025920709</v>
+        <v>224.691736760617</v>
       </c>
       <c r="S21">
-        <v>0.008725931899485348</v>
+        <v>0.007358842132189757</v>
       </c>
       <c r="T21">
-        <v>0.008725931899485348</v>
+        <v>0.007358842132189757</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.22729662862825</v>
+        <v>4.366583666666667</v>
       </c>
       <c r="H22">
-        <v>4.22729662862825</v>
+        <v>13.099751</v>
       </c>
       <c r="I22">
-        <v>0.1903111017664491</v>
+        <v>0.1832221312372622</v>
       </c>
       <c r="J22">
-        <v>0.1903111017664491</v>
+        <v>0.1832221312372622</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>11.9566919690693</v>
+        <v>14.17143466666666</v>
       </c>
       <c r="N22">
-        <v>11.9566919690693</v>
+        <v>42.514304</v>
       </c>
       <c r="O22">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="P22">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="Q22">
-        <v>50.54448365039313</v>
+        <v>61.88075514870044</v>
       </c>
       <c r="R22">
-        <v>50.54448365039313</v>
+        <v>556.926796338304</v>
       </c>
       <c r="S22">
-        <v>0.01826007051909052</v>
+        <v>0.01823981795025278</v>
       </c>
       <c r="T22">
-        <v>0.01826007051909052</v>
+        <v>0.01823981795025278</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.22729662862825</v>
+        <v>4.366583666666667</v>
       </c>
       <c r="H23">
-        <v>4.22729662862825</v>
+        <v>13.099751</v>
       </c>
       <c r="I23">
-        <v>0.1903111017664491</v>
+        <v>0.1832221312372622</v>
       </c>
       <c r="J23">
-        <v>0.1903111017664491</v>
+        <v>0.1832221312372622</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>15.6185303425051</v>
+        <v>15.94503</v>
       </c>
       <c r="N23">
-        <v>15.6185303425051</v>
+        <v>47.83509</v>
       </c>
       <c r="O23">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="P23">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="Q23">
-        <v>66.02416066099983</v>
+        <v>69.62530756251002</v>
       </c>
       <c r="R23">
-        <v>66.02416066099983</v>
+        <v>626.6277680625901</v>
       </c>
       <c r="S23">
-        <v>0.02385237206047197</v>
+        <v>0.02052258301662325</v>
       </c>
       <c r="T23">
-        <v>0.02385237206047197</v>
+        <v>0.02052258301662324</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.22729662862825</v>
+        <v>4.366583666666667</v>
       </c>
       <c r="H24">
-        <v>4.22729662862825</v>
+        <v>13.099751</v>
       </c>
       <c r="I24">
-        <v>0.1903111017664491</v>
+        <v>0.1832221312372622</v>
       </c>
       <c r="J24">
-        <v>0.1903111017664491</v>
+        <v>0.1832221312372622</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>26.5908508520181</v>
+        <v>28.53112133333333</v>
       </c>
       <c r="N24">
-        <v>26.5908508520181</v>
+        <v>85.59336400000001</v>
       </c>
       <c r="O24">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="P24">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="Q24">
-        <v>112.4074141590927</v>
+        <v>124.5835284058182</v>
       </c>
       <c r="R24">
-        <v>112.4074141590927</v>
+        <v>1121.251755652364</v>
       </c>
       <c r="S24">
-        <v>0.04060912608408225</v>
+        <v>0.03672193191989503</v>
       </c>
       <c r="T24">
-        <v>0.04060912608408225</v>
+        <v>0.03672193191989503</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.22729662862825</v>
+        <v>4.366583666666667</v>
       </c>
       <c r="H25">
-        <v>4.22729662862825</v>
+        <v>13.099751</v>
       </c>
       <c r="I25">
-        <v>0.1903111017664491</v>
+        <v>0.1832221312372622</v>
       </c>
       <c r="J25">
-        <v>0.1903111017664491</v>
+        <v>0.1832221312372622</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>27.9491093602959</v>
+        <v>32.85839333333333</v>
       </c>
       <c r="N25">
-        <v>27.9491093602959</v>
+        <v>98.57517999999999</v>
       </c>
       <c r="O25">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="P25">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="Q25">
-        <v>118.1491757719411</v>
+        <v>143.4789236422422</v>
       </c>
       <c r="R25">
-        <v>118.1491757719411</v>
+        <v>1291.31031278018</v>
       </c>
       <c r="S25">
-        <v>0.04268343695605814</v>
+        <v>0.04229149176741549</v>
       </c>
       <c r="T25">
-        <v>0.04268343695605814</v>
+        <v>0.04229149176741549</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.888214397931201</v>
+        <v>0.8970403333333333</v>
       </c>
       <c r="H26">
-        <v>0.888214397931201</v>
+        <v>2.691121</v>
       </c>
       <c r="I26">
-        <v>0.03998703557501767</v>
+        <v>0.03763987002786177</v>
       </c>
       <c r="J26">
-        <v>0.03998703557501767</v>
+        <v>0.03763987002786177</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>36.7867647594208</v>
+        <v>45.13108133333333</v>
       </c>
       <c r="N26">
-        <v>36.7867647594208</v>
+        <v>135.393244</v>
       </c>
       <c r="O26">
-        <v>0.2952017182697281</v>
+        <v>0.3170330137447531</v>
       </c>
       <c r="P26">
-        <v>0.2952017182697281</v>
+        <v>0.317033013744753</v>
       </c>
       <c r="Q26">
-        <v>32.67453411262566</v>
+        <v>40.48440024294711</v>
       </c>
       <c r="R26">
-        <v>32.67453411262566</v>
+        <v>364.359602186524</v>
       </c>
       <c r="S26">
-        <v>0.01180424161025796</v>
+        <v>0.01193308143189382</v>
       </c>
       <c r="T26">
-        <v>0.01180424161025796</v>
+        <v>0.01193308143189382</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.888214397931201</v>
+        <v>0.8970403333333333</v>
       </c>
       <c r="H27">
-        <v>0.888214397931201</v>
+        <v>2.691121</v>
       </c>
       <c r="I27">
-        <v>0.03998703557501767</v>
+        <v>0.03763987002786177</v>
       </c>
       <c r="J27">
-        <v>0.03998703557501767</v>
+        <v>0.03763987002786177</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>5.71373915320556</v>
+        <v>5.717455666666666</v>
       </c>
       <c r="N27">
-        <v>5.71373915320556</v>
+        <v>17.152367</v>
       </c>
       <c r="O27">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="P27">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="Q27">
-        <v>5.075025381900407</v>
+        <v>5.128788337045222</v>
       </c>
       <c r="R27">
-        <v>5.075025381900407</v>
+        <v>46.15909503340699</v>
       </c>
       <c r="S27">
-        <v>0.001833440855794655</v>
+        <v>0.001511748933061448</v>
       </c>
       <c r="T27">
-        <v>0.001833440855794655</v>
+        <v>0.001511748933061448</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.888214397931201</v>
+        <v>0.8970403333333333</v>
       </c>
       <c r="H28">
-        <v>0.888214397931201</v>
+        <v>2.691121</v>
       </c>
       <c r="I28">
-        <v>0.03998703557501767</v>
+        <v>0.03763987002786177</v>
       </c>
       <c r="J28">
-        <v>0.03998703557501767</v>
+        <v>0.03763987002786177</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>11.9566919690693</v>
+        <v>14.17143466666666</v>
       </c>
       <c r="N28">
-        <v>11.9566919690693</v>
+        <v>42.514304</v>
       </c>
       <c r="O28">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="P28">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="Q28">
-        <v>10.62010595855572</v>
+        <v>12.71234847719822</v>
       </c>
       <c r="R28">
-        <v>10.62010595855572</v>
+        <v>114.411136294784</v>
       </c>
       <c r="S28">
-        <v>0.003836697295490772</v>
+        <v>0.003747060316039765</v>
       </c>
       <c r="T28">
-        <v>0.003836697295490772</v>
+        <v>0.003747060316039765</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.888214397931201</v>
+        <v>0.8970403333333333</v>
       </c>
       <c r="H29">
-        <v>0.888214397931201</v>
+        <v>2.691121</v>
       </c>
       <c r="I29">
-        <v>0.03998703557501767</v>
+        <v>0.03763987002786177</v>
       </c>
       <c r="J29">
-        <v>0.03998703557501767</v>
+        <v>0.03763987002786177</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>15.6185303425051</v>
+        <v>15.94503</v>
       </c>
       <c r="N29">
-        <v>15.6185303425051</v>
+        <v>47.83509</v>
       </c>
       <c r="O29">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="P29">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="Q29">
-        <v>13.87260352473836</v>
+        <v>14.30333502621</v>
       </c>
       <c r="R29">
-        <v>13.87260352473836</v>
+        <v>128.73001523589</v>
       </c>
       <c r="S29">
-        <v>0.005011718398336749</v>
+        <v>0.00421601556627131</v>
       </c>
       <c r="T29">
-        <v>0.005011718398336749</v>
+        <v>0.004216015566271309</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.888214397931201</v>
+        <v>0.8970403333333333</v>
       </c>
       <c r="H30">
-        <v>0.888214397931201</v>
+        <v>2.691121</v>
       </c>
       <c r="I30">
-        <v>0.03998703557501767</v>
+        <v>0.03763987002786177</v>
       </c>
       <c r="J30">
-        <v>0.03998703557501767</v>
+        <v>0.03763987002786177</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>26.5908508520181</v>
+        <v>28.53112133333333</v>
       </c>
       <c r="N30">
-        <v>26.5908508520181</v>
+        <v>85.59336400000001</v>
       </c>
       <c r="O30">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="P30">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="Q30">
-        <v>23.61837658000362</v>
+        <v>25.59356659122711</v>
       </c>
       <c r="R30">
-        <v>23.61837658000362</v>
+        <v>230.342099321044</v>
       </c>
       <c r="S30">
-        <v>0.008532547782668818</v>
+        <v>0.007543896227508434</v>
       </c>
       <c r="T30">
-        <v>0.008532547782668818</v>
+        <v>0.007543896227508433</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.888214397931201</v>
+        <v>0.8970403333333333</v>
       </c>
       <c r="H31">
-        <v>0.888214397931201</v>
+        <v>2.691121</v>
       </c>
       <c r="I31">
-        <v>0.03998703557501767</v>
+        <v>0.03763987002786177</v>
       </c>
       <c r="J31">
-        <v>0.03998703557501767</v>
+        <v>0.03763987002786177</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>27.9491093602959</v>
+        <v>32.85839333333333</v>
       </c>
       <c r="N31">
-        <v>27.9491093602959</v>
+        <v>98.57517999999999</v>
       </c>
       <c r="O31">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="P31">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="Q31">
-        <v>24.82480134316852</v>
+        <v>29.47530410853111</v>
       </c>
       <c r="R31">
-        <v>24.82480134316852</v>
+        <v>265.27773697678</v>
       </c>
       <c r="S31">
-        <v>0.008968389632468717</v>
+        <v>0.008688067553086997</v>
       </c>
       <c r="T31">
-        <v>0.008968389632468717</v>
+        <v>0.008688067553086995</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>1.37225650382002</v>
+        <v>1.396580666666667</v>
       </c>
       <c r="H32">
-        <v>1.37225650382002</v>
+        <v>4.189742</v>
       </c>
       <c r="I32">
-        <v>0.06177840593904761</v>
+        <v>0.05860061451353307</v>
       </c>
       <c r="J32">
-        <v>0.06177840593904761</v>
+        <v>0.05860061451353307</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>36.7867647594208</v>
+        <v>45.13108133333333</v>
       </c>
       <c r="N32">
-        <v>36.7867647594208</v>
+        <v>135.393244</v>
       </c>
       <c r="O32">
-        <v>0.2952017182697281</v>
+        <v>0.3170330137447531</v>
       </c>
       <c r="P32">
-        <v>0.2952017182697281</v>
+        <v>0.317033013744753</v>
       </c>
       <c r="Q32">
-        <v>50.48087719561231</v>
+        <v>63.02919565589423</v>
       </c>
       <c r="R32">
-        <v>50.48087719561231</v>
+        <v>567.262760903048</v>
       </c>
       <c r="S32">
-        <v>0.01823709158517163</v>
+        <v>0.0185783294265199</v>
       </c>
       <c r="T32">
-        <v>0.01823709158517163</v>
+        <v>0.0185783294265199</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>1.37225650382002</v>
+        <v>1.396580666666667</v>
       </c>
       <c r="H33">
-        <v>1.37225650382002</v>
+        <v>4.189742</v>
       </c>
       <c r="I33">
-        <v>0.06177840593904761</v>
+        <v>0.05860061451353307</v>
       </c>
       <c r="J33">
-        <v>0.06177840593904761</v>
+        <v>0.05860061451353307</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>5.71373915320556</v>
+        <v>5.717455666666666</v>
       </c>
       <c r="N33">
-        <v>5.71373915320556</v>
+        <v>17.152367</v>
       </c>
       <c r="O33">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="P33">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="Q33">
-        <v>7.840715714117423</v>
+        <v>7.984888046590444</v>
       </c>
       <c r="R33">
-        <v>7.840715714117423</v>
+        <v>71.86399241931399</v>
       </c>
       <c r="S33">
-        <v>0.002832594410306372</v>
+        <v>0.002353605801561035</v>
       </c>
       <c r="T33">
-        <v>0.002832594410306372</v>
+        <v>0.002353605801561035</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>1.37225650382002</v>
+        <v>1.396580666666667</v>
       </c>
       <c r="H34">
-        <v>1.37225650382002</v>
+        <v>4.189742</v>
       </c>
       <c r="I34">
-        <v>0.06177840593904761</v>
+        <v>0.05860061451353307</v>
       </c>
       <c r="J34">
-        <v>0.06177840593904761</v>
+        <v>0.05860061451353307</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>11.9566919690693</v>
+        <v>14.17143466666666</v>
       </c>
       <c r="N34">
-        <v>11.9566919690693</v>
+        <v>42.514304</v>
       </c>
       <c r="O34">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="P34">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="Q34">
-        <v>16.40764831872795</v>
+        <v>19.79155167439644</v>
       </c>
       <c r="R34">
-        <v>16.40764831872795</v>
+        <v>178.123965069568</v>
       </c>
       <c r="S34">
-        <v>0.005927547255695017</v>
+        <v>0.005833708697098747</v>
       </c>
       <c r="T34">
-        <v>0.005927547255695017</v>
+        <v>0.005833708697098747</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>1.37225650382002</v>
+        <v>1.396580666666667</v>
       </c>
       <c r="H35">
-        <v>1.37225650382002</v>
+        <v>4.189742</v>
       </c>
       <c r="I35">
-        <v>0.06177840593904761</v>
+        <v>0.05860061451353307</v>
       </c>
       <c r="J35">
-        <v>0.06177840593904761</v>
+        <v>0.05860061451353307</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>15.6185303425051</v>
+        <v>15.94503</v>
       </c>
       <c r="N35">
-        <v>15.6185303425051</v>
+        <v>47.83509</v>
       </c>
       <c r="O35">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="P35">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="Q35">
-        <v>21.43262984261295</v>
+        <v>22.26852062742</v>
       </c>
       <c r="R35">
-        <v>21.43262984261295</v>
+        <v>200.41668564678</v>
       </c>
       <c r="S35">
-        <v>0.00774290890065572</v>
+        <v>0.006563813923885508</v>
       </c>
       <c r="T35">
-        <v>0.00774290890065572</v>
+        <v>0.006563813923885506</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>1.37225650382002</v>
+        <v>1.396580666666667</v>
       </c>
       <c r="H36">
-        <v>1.37225650382002</v>
+        <v>4.189742</v>
       </c>
       <c r="I36">
-        <v>0.06177840593904761</v>
+        <v>0.05860061451353307</v>
       </c>
       <c r="J36">
-        <v>0.06177840593904761</v>
+        <v>0.05860061451353307</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>26.5908508520181</v>
+        <v>28.53112133333333</v>
       </c>
       <c r="N36">
-        <v>26.5908508520181</v>
+        <v>85.59336400000001</v>
       </c>
       <c r="O36">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="P36">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="Q36">
-        <v>36.48946802378996</v>
+        <v>39.84601245245423</v>
       </c>
       <c r="R36">
-        <v>36.48946802378996</v>
+        <v>358.614112072088</v>
       </c>
       <c r="S36">
-        <v>0.01318245258824246</v>
+        <v>0.0117449118296924</v>
       </c>
       <c r="T36">
-        <v>0.01318245258824246</v>
+        <v>0.0117449118296924</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>1.37225650382002</v>
+        <v>1.396580666666667</v>
       </c>
       <c r="H37">
-        <v>1.37225650382002</v>
+        <v>4.189742</v>
       </c>
       <c r="I37">
-        <v>0.06177840593904761</v>
+        <v>0.05860061451353307</v>
       </c>
       <c r="J37">
-        <v>0.06177840593904761</v>
+        <v>0.05860061451353307</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>27.9491093602959</v>
+        <v>32.85839333333333</v>
       </c>
       <c r="N37">
-        <v>27.9491093602959</v>
+        <v>98.57517999999999</v>
       </c>
       <c r="O37">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="P37">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="Q37">
-        <v>38.35334709564305</v>
+        <v>45.88939686706222</v>
       </c>
       <c r="R37">
-        <v>38.35334709564305</v>
+        <v>413.0045718035599</v>
       </c>
       <c r="S37">
-        <v>0.01385581119897642</v>
+        <v>0.01352624483477548</v>
       </c>
       <c r="T37">
-        <v>0.01385581119897642</v>
+        <v>0.01352624483477548</v>
       </c>
     </row>
   </sheetData>
